--- a/Jogos_do_Dia/2023-10-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -830,13 +830,13 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L3" t="n">
-        <v>4.2</v>
+        <v>3.67</v>
       </c>
       <c r="M3" t="n">
         <v>1.44</v>
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -1247,13 +1247,13 @@
         <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.9</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1.58</v>
@@ -1274,10 +1274,10 @@
         <v>2.55</v>
       </c>
       <c r="S6" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
@@ -1319,10 +1319,10 @@
         <v>2.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>1.29</v>

--- a/Jogos_do_Dia/2023-10-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -830,13 +830,13 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="K3" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>3.67</v>
+        <v>4.59</v>
       </c>
       <c r="M3" t="n">
         <v>1.44</v>
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="T3" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -1247,13 +1247,13 @@
         <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="K6" t="n">
-        <v>2.86</v>
+        <v>2.75</v>
       </c>
       <c r="L6" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="M6" t="n">
         <v>1.58</v>
@@ -1268,16 +1268,16 @@
         <v>6.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
